--- a/demo/demo/Tcs.xlsx
+++ b/demo/demo/Tcs.xlsx
@@ -1,49 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>loop times</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,31 +45,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -117,7 +112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,10 +144,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +178,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,24 +353,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Loop times</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>haha</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>